--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem5/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem5/123/correct_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,21 +467,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Unlocking takeoff restrictions not recommended</t>
+          <t>Obstacle Avoidance Disabled</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17-21</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -491,27 +491,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16-19</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -527,26 +527,26 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24-26</t>
+          <t>17-21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -566,12 +566,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Obstacle avoidance unavailable</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>16-19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -587,11 +587,11 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>24-26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -617,31 +617,91 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Obstacle avoidance unavailable</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5-7</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Fly with caution</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13-15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Motor speed error</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0-2</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Event</t>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>If the issue persists, contact DJI Support</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21-27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem5/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem5/123/correct_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,21 +467,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled</t>
+          <t>Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>17-21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -491,27 +491,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>16-19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -527,26 +527,26 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Unlocking takeoff restrictions not recommended</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17-21</t>
+          <t>24-26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -566,12 +566,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16-19</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -587,11 +587,11 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24-26</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -617,91 +617,31 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Obstacle avoidance unavailable</t>
+          <t>Motor speed error</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Fly with caution</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>13-15</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>If the issue persists, contact DJI Support</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>21-27</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
